--- a/DB임시파일2.xlsx
+++ b/DB임시파일2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5385" tabRatio="602" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5385" tabRatio="602" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="회원정보" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1354">
   <si>
     <t>회원번호</t>
   </si>
@@ -5010,6 +5010,50 @@
   </si>
   <si>
     <t>안녕하세요~ scyang님! 당신의 첫번째 책 FirstBook 관리자입니다. 저희 서비스를 사랑해주셔서 진심으로 감사드립니다!! FirsBook은 작가님들과 계약한 출판사, 에이전시에서 소설을 받아 업데이트하는 2차 플랫폼인 점을 알려드리고 싶습니다. 문피아나 조아라에 비하면 업데이트가 느리지만 그만큼 양질의 소설을 공급해드리려 노력하고 있으며, 공모전을 통해 신인 작가들 작품도 많이 게시중에 있습니다. 조금만 기다려주시면 금새 새로운 소설들이 업데이트 되니 양해를 부탁드리겠습니다 ^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매만 하고 열람하지 않았는데 환불이 가능한가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료로 소설을 볼 수 있는 방법도 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 가능합니다. 마이페이지에서 일주일에 한번 위클리 코인을 모아서 소설을 감상하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열람하지 않았더라도 코인을 사용해서 구매하는 시점으로부터 환불은 불가능합니다. 단 , 웹소설 구매나 단행본 구매 이전에 코인은 환불이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴는 어떻게 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴는 마이페이지에서 가능합니다. 탈퇴시 보유한 코인은 자동 환불되지 않으니 환불 이후 탈퇴하시는 것을 권고드립니다. 또한 보유한 서재 또한 초기화되니 탈퇴에 앞서 신중하게 판단하시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일괄구매가 하고 싶어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일괄구매는 웹소설 페이지에서 가능합니다. 구매를 원하는 화수를 선택한 후 결제를 하시면 최소 1편에서 전편을 일괄 구매하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악플을 다는 유저를 신고하고 싶어요. 신고절차는 어떻게 되나요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글상 우측에 위치한 신고버튼을 눌러서 신고가 가능합니다. 누적회수가 20회를 넘어가면 댓글은 블라인드 처리되며 관리자의 검토 후 차단 여부가 결정됩니다. 단 무고한 신고에 대해서는 신고자 또한 처벌이 되니 유의하시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작품과 작가 등록은 어떻게 하나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8396,17 +8440,17 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -8429,6 +8473,89 @@
       </c>
       <c r="C3" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -10908,7 +11035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
